--- a/vehicle_data.xlsx
+++ b/vehicle_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,76 +579,91 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Dark Red</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Gampaha City</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>A/C</t>
-        </is>
-      </c>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Headrests</t>
+          <t>Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
+          <t>Power Windows, Tinted Glass, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
           <t>Seller NotesN/A</t>
@@ -656,19 +671,31 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2012-13/</t>
+          <t>https://autostream.lk/listings/toyota-vitz-2010-2/</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -688,7 +715,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -713,29 +740,23 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Touch Display, Multi Function Steering, Speakers</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Headrests, Seat Back Pockets</t>
-        </is>
-      </c>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
-        </is>
-      </c>
+          <t>Tinted Glass</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
           <t>Seller NotesN/A</t>
@@ -743,19 +764,31 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
+          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -770,7 +803,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>White</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -805,19 +838,26 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A/C</t>
-        </is>
-      </c>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Headrests</t>
+          <t>Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
           <t>Seller NotesN/A</t>
@@ -825,19 +865,31 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2012-13/</t>
+          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Hatchback</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -852,7 +904,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -887,24 +939,22 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Touch Display, Multi Function Steering, Speakers</t>
-        </is>
-      </c>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Headrests, Seat Back Pockets</t>
+          <t>Headrests</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
-        </is>
-      </c>
+          <t>Tinted Glass, Rear Wiper</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
           <t>Seller NotesN/A</t>
@@ -912,395 +962,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Tinted Glass</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Seller NotesN/A</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Touch Display, Multi Function Steering, Speakers</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Headrests, Seat Back Pockets</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Seller NotesN/A</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Headrests</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Seller NotesN/A</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
           <t>https://autostream.lk/listings/honda-fit-2012-13/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Dark Red</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Headrests, Seat Back Pockets</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Seller NotesN/A</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>https://autostream.lk/listings/toyota-vitz-2010-2/</t>
         </is>
       </c>
     </row>

--- a/vehicle_data.xlsx
+++ b/vehicle_data.xlsx
@@ -594,8 +594,16 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>2010</t>
@@ -691,11 +699,19 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -715,7 +731,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -740,20 +756,28 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+          <t>A/C, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Tinted Glass</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -764,7 +788,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
+          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
         </is>
       </c>
     </row>
@@ -784,11 +808,19 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -808,7 +840,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -833,28 +865,20 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Touch Display, Multi Function Steering, Speakers</t>
-        </is>
-      </c>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Headrests, Seat Back Pockets</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
+          <t>Tinted Glass</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -865,7 +889,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
+          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
         </is>
       </c>
     </row>
@@ -885,8 +909,16 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>2012</t>

--- a/vehicle_data.xlsx
+++ b/vehicle_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -601,12 +601,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Dark Red</t>
+          <t>Pearl White</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -641,45 +641,57 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Gampaha</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Gampaha City</t>
+          <t>Kohuwala</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>A/C, Power Door Locks</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Headrests, Seat Back Pockets</t>
+          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest, Headrests</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Sunroof, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Seller NotesN/A</t>
+          <t>Seller NotesPeugeot 5008 GT Line 2025Brand new - unregisteredYear of manufacture 2025Petrol &amp; Hybrid 1200ccPeal White ExteriorBlack interior7 seaterPush Start,Dual A/CCruise ControlBrake AssistLane AssistElectric SeatsLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemAuto wink Mirror FoldingReverse cameraPower BootFog lightsOriginal Alloy WheelBrand new Tires setFully LoadedMany more options available on the JeepCall for more information</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-vitz-2010-2/</t>
+          <t>https://autostream.lk/listings/peugeot-5008-2025/</t>
         </is>
       </c>
     </row>
@@ -695,23 +707,27 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -746,12 +762,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Gampaha</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Gampaha City</t>
+          <t>Kohuwala</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -761,34 +777,42 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A/C, Power Door Locks</t>
+          <t>A/C, Cruise Control</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Touch Display, Multi Function Steering, Speakers</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+          <t>Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Headrests, Seat Back Pockets</t>
+          <t>Leather Interior, Driver Armrest</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Fog Lights</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr"/>
+          <t>Power Windows, Headlights: Halogen, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Alloy wheels</t>
+        </is>
+      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Seller NotesN/A</t>
+          <t>Seller NotesToyota Hilux Revo GR Sport ( Japan)Manufactured in 202223,000km doneAvailabe for inspection at</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-fit-2014-6/</t>
+          <t>https://autostream.lk/listings/toyota-hilux-2022-2/</t>
         </is>
       </c>
     </row>
@@ -804,23 +828,23 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hatchback</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -835,12 +859,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -855,41 +879,57 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Gampaha</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Gampaha City</t>
+          <t>Kohuwala</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A/C</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>A/C, Dual A/C</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Leather Interior, Headrests</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Tinted Glass</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+          <t>Tinted Glass, Headlights: LED</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Seller NotesN/A</t>
+          <t>Seller NotesHonda Vezel Hybrid Z Grade1500cc Petrol Hybrid2025 Brand NewPower Tail Gate, Radar Cruise control,Lane Keep Assist Availabe for inspection at</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-passo-2007/</t>
+          <t>https://autostream.lk/listings/honda-vezel-2025-47/</t>
         </is>
       </c>
     </row>
@@ -905,96 +945,1060 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Pearl White</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Memory Seats, Driver Armrest, Rear Armrest</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Paddle Shift, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Seller NotesToyota Land Cruisers Prado TRJ 150 TX LimitedUnregisteredYear of manufactured 2023Only Petrol 2700ccMillage 3,000 Kms only DonePearl White Color ExteriorBeige leather and Black Trim InteriorElectric Side StepSurrounding Sound System360 Camera ViewElectric Open SunroofPush Start,Seat Heater and CoolerLast row Electric seatsDual A/CCruise ControlBrake AssistLane AssistElectric SeatsElectric 7 SeaterSurrounding Camera SystemLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemMirror FoldingTV,DVD,Reverse cameraNickel HandleFactory Fitted Electric Side stepFog lightsOriginal Alloy WheelAll service records are available.Fully LoadedMany more options available on the JeepCall for more information</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-land-cruiser-prado-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Pearl White</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Seller NotesMercedes Benz GLBAMG Line Premium Plus2024 ManufacturedDone 5,000kmPanoramic Sliding sunroofFront both side Memory seats with electric seatsPower tail gateSurrounding cameraSound system and many more more options Available for inspection atA A Auto Mart</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/mercedes-benz-glb-200-2024-6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Push Button Start, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Seller NotesMaxus T90 Luxury (Double Cab 4x4 AT)Year of manufacture 2025Zero MileageAutomatic transmissionEngine &amp; Performance• 2.0L Bi-Turbo Diesel• 500 Nm torque @ 1500-2400 RPM• 8-Speed Automatic Transmission• Electric Power Steering (EPS)• Double-wishbone (front) / Multi-link (rear) suspension• 4-Wheel Disc BrakesDimensions &amp; Capacity• Size: 5395 x 1960 x 1815 mm• Seating: 5 Seats / 4 Doors• GVW: 2900 kg / CVW: 2150 kgWheels &amp; Exterior• 18” Alloy Wheels (265/60 R18)• Spare: Steel (245/65 R17)• Chrome window trims, body-color bumpers• Pickup bed liner, luggage rack, side door step• Heated, auto-adjustable rear-view mirrors⸻Features &amp; TechnologySafety &amp; Security• 360° Panoramic Camera• ESP + EBA, Differential Lock• Airbags: Front, Side, Curtain• Tyre Pressure Monitoring SystemComfort &amp; Entertainment• 12.3” LCD Display + 10.25” Infotainment Screen• Leather Interior with Heated Front Seats• Apple CarPlay &amp; Android Auto• Wireless Charging, Cruise Control• 6-Way Electronic Seat Adjustment (Driver &amp; Co-driver)• Automatic AC, 6 SpeakersDriver Assistance &amp; Intelligent Tech• PEPS (Passive Entry Passive Start)• Driving Modes: Eco / Power / Normal• Parking Assist (Front &amp; Rear), Collision &amp; Lane Assist• Electric Parking Brake, Speed Limit Alarm• Electronic Stability Control, Induction LampMany more options availableWith Company Warranty availableFully LoadedMany more options available on the JeepCall for more information</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/mahindra-maxximo-2025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Pearl White</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Push Button Start, Parking Assistance, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Seller NotesFord Raptor RangerBrand new - UnregisteredYear of manufacture 20252.0 DieselPush startDual multi functionCruiser Control360 Camera viewAutomatic transmissionElectric seatsDigital cockpitFog lightFactory fitted side StepElectric canopy with Remote AccessFully LoadedMany more options available on the JeepCall for more information</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/ford-raptor-ranger-2025-15/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>97000</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Power Windows, Rear Wiper, Headlights: Halogen, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Push Button Start, Parking Assistance, Rear Spoiler, Paddle Shift, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Seller NotesBMW X1 M SportYear of manufacture 2018Registered 1st OwnerCBL - X X X XGenuine Millage 97,000 Kms only DoneThroughout Company maintained with Complete Service records and emissions TestWhite Exterior with brown leather interiorSafety PackageHead up DisplayDual side Electric seatsMemory seatsDual Multi FunctionCruise controlAuto retract MirrorsPower BootReverse cameraSurrounded 360 sensorsDaytime Running lightsFog lightsOriginal alloy wheelsmany More OptionsUp to dated Very well Maintained By CompanyPrice can be negotiated after inspectionCall for More information</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/bmw-x1-2018-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ABS, Security System, Airbag: Knee, Airbag: Curtain+Side</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Leather Interior, Third Row Seats, Driver Armrest</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Tinted Glass, Headlights: LED, Auto Headlamps</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Parking Assistance, Rear Spoiler, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Seller NotesBrand New Toyota Hilux Revo GR Sport -Made in JAPAN -Imported from JapanUnregisteredYear of manufactured 2024Zero MileageDouble Cab 4x4 2.4L GR SportBlack color ExteriorGR Sport Seats and Black Trim InteriorAutomatic transmissionOriginal 4way cameraPush Start,Dual A/CCruise ControlBrake AssistLane AssistElectric SeatsLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemAuto wink Mirror FoldingReverse cameraNickel HandleFactory Fitted Side stepElectric CanopyFog lightsOriginal Alloy WheelBrand new Tires setFully LoadedMany more options available on the JeepCall for more information</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-hilux-2024-21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Hatchback</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Hybrid</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Automatic</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Pearl White</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A/C</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Touch Display</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Airbag: Driver</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Fabric Interior, Headrests</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Headlights: LED, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Seller NotesSuzuki Spacia Custom G660cc100km done2025 ManufacturedFully loaded Available for inspectionA A AUTO MART</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/suzuki-spacia-2025-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Push Button Start, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Seller NotesHonda CRV VTi L72024 ManufacturedBrand New Panasonic Sunroof2WD, Front Driver’s side electric with memory seats,Wireless mobile phone charging, 7 seater, power tail gate, Apple Car Play and Android Auto, Cruise Control with lane Keep assist and radar Brake, Dual AC and many more option.</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-crv-2024-17/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Gampaha City</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>A/C</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Headrests</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Tinted Glass, Rear Wiper</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Seller NotesN/A</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>https://autostream.lk/listings/honda-fit-2012-13/</t>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>USB outlets</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>ABS</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Memory Seats</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Tinted Glass</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Seller NotesJeep Rubicon Gladiator Double CabUnregisteredYear of manufacture 2022Mileage 10,000 Kms only DoneOnly Petrol 3600ccAutomatic Transmission4 wheel DriveElectric winchFox Racing suspensionAluminum alloy wheelsBlack Leather Trimmed Bucket Seats4:1 Rock-Trac Full Time 4WD SystemAUX SwitchesPremium Audio with Subwoofer7” uConnectApple CarPlay &amp; Android AutoAir BagsRoll Over BarRear Park AssistRear CameraPush StartKeyless EntryTru-Lok Front &amp; Gear AxlesFront Disconnecting Stabilizer BarLED Headlights17" Alloy wheelsMany more options availableFully LoadedMany more options available on the JeepCall for more information</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/jeep-wrangler-2022/</t>
         </is>
       </c>
     </row>

--- a/vehicle_data.xlsx
+++ b/vehicle_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,34 +579,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>SUV</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -621,7 +601,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Pearl White</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -656,78 +636,54 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest, Headrests</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Sunroof, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+          <t>Sunroof, Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Paddle Shift, Alloy wheels</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Seller NotesPeugeot 5008 GT Line 2025Brand new - unregisteredYear of manufacture 2025Petrol &amp; Hybrid 1200ccPeal White ExteriorBlack interior7 seaterPush Start,Dual A/CCruise ControlBrake AssistLane AssistElectric SeatsLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemAuto wink Mirror FoldingReverse cameraPower BootFog lightsOriginal Alloy WheelBrand new Tires setFully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesN/A</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/peugeot-5008-2025/</t>
+          <t>https://autostream.lk/listings/honda-crv-2023/</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23000</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2800</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -777,74 +733,54 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>A/C, Cruise Control</t>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater, Wireless Charging</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Leather Interior, Driver Armrest</t>
+          <t>Leather Interior, Memory Seats, Power Seats, Third Row Seats, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Power Windows, Headlights: Halogen, Fog Lights</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Alloy wheels</t>
+          <t>Sunroof, Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Seller NotesToyota Hilux Revo GR Sport ( Japan)Manufactured in 202223,000km doneAvailabe for inspection at</t>
+          <t>Seller NotesThe Land Cruiser 250 Prado. Even today, it continues to forge ahead powerfully on uncharted roads in every region . A new evolution begins here.</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-hilux-2022-2/</t>
+          <t>https://autostream.lk/listings/toyota-land-cruiser-250-2024-22/</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>SUV</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Hybrid</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -854,17 +790,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>M Sport</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -894,73 +830,49 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A/C, Dual A/C</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Leather Interior, Headrests</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Tinted Glass, Headlights: LED</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Seller NotesHonda Vezel Hybrid Z Grade1500cc Petrol Hybrid2025 Brand NewPower Tail Gate, Radar Cruise control,Lane Keep Assist Availabe for inspection at</t>
+          <t>Seller NotesThe BMW X1 2020 is a compact luxury SUV that offers a perfect blend of performance and practicality. With its turbocharged engine and smooth automatic transmission, it provides a dynamic driving experience. The car is well-maintained and in excellent condition, featuring a stylish Mineral White Metallic exterior and a luxurious leather interior. Equipped with modern safety features and advanced technology, this BMW X1 ensures a comfortable and secure ride.</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-vezel-2025-47/</t>
+          <t>https://autostream.lk/listings/bmw-x1-m-sport-2020/</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SUV</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2700</t>
+          <t>MPV</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -980,12 +892,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Pearl White</t>
+          <t>Dark Blue</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1015,73 +927,54 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>A/C, Dual A/C, Cruise Control, Reverse Camera</t>
+          <t>A/C, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering</t>
+          <t>USB outlets, AM/FM Radio, Speakers</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Child Locks</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Memory Seats, Driver Armrest, Rear Armrest</t>
+          <t>Fabric Interior, Driver Armrest, Headrests</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Fog Lights</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Push Button Start, Smart Key, Parking Assistance, Paddle Shift, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Alloy wheels</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Seller NotesToyota Land Cruisers Prado TRJ 150 TX LimitedUnregisteredYear of manufactured 2023Only Petrol 2700ccMillage 3,000 Kms only DonePearl White Color ExteriorBeige leather and Black Trim InteriorElectric Side StepSurrounding Sound System360 Camera ViewElectric Open SunroofPush Start,Seat Heater and CoolerLast row Electric seatsDual A/CCruise ControlBrake AssistLane AssistElectric SeatsElectric 7 SeaterSurrounding Camera SystemLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemMirror FoldingTV,DVD,Reverse cameraNickel HandleFactory Fitted Electric Side stepFog lightsOriginal Alloy WheelAll service records are available.Fully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesN/A</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-land-cruiser-prado-2023/</t>
+          <t>https://autostream.lk/listings/toyota-roomy-2023-18/</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1300</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1126,7 +1019,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Kohuwala</t>
+          <t>Dehiwala</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1136,12 +1029,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>A/C, Cruise Control, Reverse Camera</t>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering</t>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Apple Car Play, Navigation</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1151,54 +1044,39 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest</t>
+          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest, Headrests</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps</t>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, 4-Way Camera, Alloy wheels</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Seller NotesMercedes Benz GLBAMG Line Premium Plus2024 ManufacturedDone 5,000kmPanoramic Sliding sunroofFront both side Memory seats with electric seatsPower tail gateSurrounding cameraSound system and many more more options Available for inspection atA A Auto Mart</t>
+          <t>Seller Notes* MERCEDES BENZ C200* YEAR OF MANUFACTURE 2024* 4 MATIC* Advanced plus package* 18-inch AMG 5-spoke light-alloy wheels* Automatic front passenger airbag deactivation* 4-way lumbar support for driver and front passenger* Illuminated door sill panels with “Mercedes-Benz” lettering* Dashboard and beltlines in ARTICO man-made leather with smooth leather* Pedestrian protection* Multifunctional sports steering wheel-deep embedded leather* KEYLESS-GO comfort package* AMG line exterior* AMG line interior* Parking package with 360-degree camera* Mirror package* Technical package* Advanced plus package* Fuel tank with increased capacity 66* EASY-PACK load-compartment floor* ECO start/stop* AMG DYNAMIC SELECT* Sporty engine sound* Heat-insulating dark-tinted glass all-round from B-pillars* Central display with 30.2 cm (11.9-inch) screen diagonal* Telefax unit in console between rear seats* Heated front seats* Interior light package* Remote boot-lid close* Independent boot locking* Nightlighting* Wireless charging system for mobile devices* Steel suspension with adjustable damping* All digital instrument display* Tyre pressure loss warning system* Exclusive nappa leather upholstery* Exterior mirror LH and RH with memory* Automatic anti-dazzle rear-view mirror and spotlight* Traffic sign assist* Ambient lighting with projection of brand logo integrated into both exterior mirrors* Diamond grille* Adaptive highbeam assist* USB package* AMG body styling* Front sport seats* Omission of PARKTONIC system* Active steering* Memory package* Individualization package* Stowage space package* Panaromic sliding sunroof with electric roller sun blind* Smart phone integration* Outside temperature gauge* Smartphone integration CarPlay* Rear-Axle steering* DISTRONIC PLUS with steering assist and stop&amp;go pilot* Active parking assist* Front seat electrical adjustable left with memory switch* Front seat right electrical adjustable with memory switch* Active lane keeping assist* Automatically dimming interior and exterior mirrors* Omission of PARKTONIC systemCAN SEE AT OUR SHOWROOM,AUTO PROGRESS PVT LTD133 , HOSPITAL ROADKALUBIWILA DEHIWALA</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/mercedes-benz-glb-200-2024-6/</t>
+          <t>https://autostream.lk/listings/mercedes-benz-c200-2024-2/</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SUV</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2000</t>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1218,14 +1096,14 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1253,74 +1131,54 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>A/C, Dual A/C, Cruise Control, Reverse Camera</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Fog Lights</t>
+          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Push Button Start, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Seller NotesMaxus T90 Luxury (Double Cab 4x4 AT)Year of manufacture 2025Zero MileageAutomatic transmissionEngine &amp; Performance• 2.0L Bi-Turbo Diesel• 500 Nm torque @ 1500-2400 RPM• 8-Speed Automatic Transmission• Electric Power Steering (EPS)• Double-wishbone (front) / Multi-link (rear) suspension• 4-Wheel Disc BrakesDimensions &amp; Capacity• Size: 5395 x 1960 x 1815 mm• Seating: 5 Seats / 4 Doors• GVW: 2900 kg / CVW: 2150 kgWheels &amp; Exterior• 18” Alloy Wheels (265/60 R18)• Spare: Steel (245/65 R17)• Chrome window trims, body-color bumpers• Pickup bed liner, luggage rack, side door step• Heated, auto-adjustable rear-view mirrors⸻Features &amp; TechnologySafety &amp; Security• 360° Panoramic Camera• ESP + EBA, Differential Lock• Airbags: Front, Side, Curtain• Tyre Pressure Monitoring SystemComfort &amp; Entertainment• 12.3” LCD Display + 10.25” Infotainment Screen• Leather Interior with Heated Front Seats• Apple CarPlay &amp; Android Auto• Wireless Charging, Cruise Control• 6-Way Electronic Seat Adjustment (Driver &amp; Co-driver)• Automatic AC, 6 SpeakersDriver Assistance &amp; Intelligent Tech• PEPS (Passive Entry Passive Start)• Driving Modes: Eco / Power / Normal• Parking Assist (Front &amp; Rear), Collision &amp; Lane Assist• Electric Parking Brake, Speed Limit Alarm• Electronic Stability Control, Induction LampMany more options availableWith Company Warranty availableFully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesN/A</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/mahindra-maxximo-2025/</t>
+          <t>https://autostream.lk/listings/toyota-voxy-2025-4/</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2000</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1330,12 +1188,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>M Sport</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Pearl White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1345,7 +1203,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1365,47 +1223,47 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>A/C, Cruise Control</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Fog Lights</t>
+          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Push Button Start, Parking Assistance, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Seller NotesFord Raptor RangerBrand new - UnregisteredYear of manufacture 20252.0 DieselPush startDual multi functionCruiser Control360 Camera viewAutomatic transmissionElectric seatsDigital cockpitFog lightFactory fitted side StepElectric canopy with Remote AccessFully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesThe BMW 318i 2017 is a perfect blend of luxury and performance. With its turbocharged engine and smooth automatic transmission, it offers a thrilling driving experience. The car is well-maintained and in excellent condition, featuring a stylish Alpine White exterior and a luxurious leather interior. Equipped with modern safety features and advanced technology, this BMW 318i ensures a comfortable and secure ride.</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/ford-raptor-ranger-2025-15/</t>
+          <t>https://autostream.lk/listings/bmw-318i-m-sport-2017-3/</t>
         </is>
       </c>
     </row>
@@ -1415,33 +1273,33 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mercedes Benz C200 2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>97000</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1456,7 +1314,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Pearl White</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1466,7 +1324,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1481,7 +1339,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Kohuwala</t>
+          <t>Dehiwala</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1491,42 +1349,42 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>A/C, Cruise Control</t>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Apple Car Play, Navigation</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+          <t>ABS, Airbag: Driver, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Leather Interior, Driver Armrest, Rear Armrest</t>
+          <t>Leather Interior, Power Seats, Driver Armrest, Rear Armrest, Headrests</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Power Windows, Rear Wiper, Headlights: Halogen, Fog Lights</t>
+          <t>Power Windows, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Push Button Start, Parking Assistance, Rear Spoiler, Paddle Shift, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, 4-Way Camera, Alloy wheels</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Seller NotesBMW X1 M SportYear of manufacture 2018Registered 1st OwnerCBL - X X X XGenuine Millage 97,000 Kms only DoneThroughout Company maintained with Complete Service records and emissions TestWhite Exterior with brown leather interiorSafety PackageHead up DisplayDual side Electric seatsMemory seatsDual Multi FunctionCruise controlAuto retract MirrorsPower BootReverse cameraSurrounded 360 sensorsDaytime Running lightsFog lightsOriginal alloy wheelsmany More OptionsUp to dated Very well Maintained By CompanyPrice can be negotiated after inspectionCall for More information</t>
+          <t>Seller Notes* MERCEDES BENZ C200* YEAR OF MANUFACTURE 2024* 4 MATIC* Advanced plus package* 18-inch AMG 5-spoke light-alloy wheels* Automatic front passenger airbag deactivation* 4-way lumbar support for driver and front passenger* Illuminated door sill panels with “Mercedes-Benz” lettering* Dashboard and beltlines in ARTICO man-made leather with smooth leather* Pedestrian protection* Multifunctional sports steering wheel-deep embedded leather* KEYLESS-GO comfort package* AMG line exterior* AMG line interior* Parking package with 360-degree camera* Mirror package* Technical package* Advanced plus package* Fuel tank with increased capacity 66* EASY-PACK load-compartment floor* ECO start/stop* AMG DYNAMIC SELECT* Sporty engine sound* Heat-insulating dark-tinted glass all-round from B-pillars* Central display with 30.2 cm (11.9-inch) screen diagonal* Telefax unit in console between rear seats* Heated front seats* Interior light package* Remote boot-lid close* Independent boot locking* Nightlighting* Wireless charging system for mobile devices* Steel suspension with adjustable damping* All digital instrument display* Tyre pressure loss warning system* Exclusive nappa leather upholstery* Exterior mirror LH and RH with memory* Automatic anti-dazzle rear-view mirror and spotlight* Traffic sign assist* Ambient lighting with projection of brand logo integrated into both exterior mirrors* Diamond grille* Adaptive highbeam assist* USB package* AMG body styling* Front sport seats* Omission of PARKTONIC system* Active steering* Memory package* Individualization package* Stowage space package* Panaromic sliding sunroof with electric roller sun blind* Smart phone integration* Outside temperature gauge* Smartphone integration CarPlay* Rear-Axle steering* DISTRONIC PLUS with steering assist and stop&amp;go pilot* Active parking assist* Front seat electrical adjustable left with memory switch* Front seat right electrical adjustable with memory switch* Active lane keeping assist* Automatically dimming interior and exterior mirrors* Omission of PARKTONIC systemCAN SEE AT OUR SHOWROOM,AUTO PROGRESS PVT LTD133 , HOSPITAL ROADKALUBIWILA DEHIWALA</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/bmw-x1-2018-4/</t>
+          <t>https://autostream.lk/listings/mercedes-benz-c200-2024-2/</t>
         </is>
       </c>
     </row>
@@ -1536,26 +1394,26 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Toyota Land Cruiser 250 2024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rs. 67,500,000</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>2024</t>
@@ -1573,14 +1431,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1608,42 +1466,42 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks</t>
+          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater, Wireless Charging</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>ABS, Security System, Airbag: Knee, Airbag: Curtain+Side</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Leather Interior, Third Row Seats, Driver Armrest</t>
+          <t>Leather Interior, Memory Seats, Power Seats, Third Row Seats, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Tinted Glass, Headlights: LED, Auto Headlamps</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Parking Assistance, Rear Spoiler, Alloy wheels</t>
+          <t>Sunroof, Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Seller NotesBrand New Toyota Hilux Revo GR Sport -Made in JAPAN -Imported from JapanUnregisteredYear of manufactured 2024Zero MileageDouble Cab 4x4 2.4L GR SportBlack color ExteriorGR Sport Seats and Black Trim InteriorAutomatic transmissionOriginal 4way cameraPush Start,Dual A/CCruise ControlBrake AssistLane AssistElectric SeatsLive Surround Sound SystemClimate ControlDual MultifunctionRetractable Mirror,Power MirrorDual Air Bags ,ABS Break SystemAuto wink Mirror FoldingReverse cameraNickel HandleFactory Fitted Side stepElectric CanopyFog lightsOriginal Alloy WheelBrand new Tires setFully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesThe Land Cruiser 250 Prado. Even today, it continues to forge ahead powerfully on uncharted roads in every region . A new evolution begins here.</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/toyota-hilux-2024-21/</t>
+          <t>https://autostream.lk/listings/toyota-land-cruiser-250-2024-22/</t>
         </is>
       </c>
     </row>
@@ -1653,33 +1511,29 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BMW X1 M Sport 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rs. 27,500,000</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Hybrid</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1689,17 +1543,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>M Sport</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Pearl White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1729,42 +1583,42 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A/C</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Touch Display</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Airbag: Driver</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Fabric Interior, Headrests</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Headlights: LED, Fog Lights</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Seller NotesSuzuki Spacia Custom G660cc100km done2025 ManufacturedFully loaded Available for inspectionA A AUTO MART</t>
+          <t>Seller NotesThe BMW X1 2020 is a compact luxury SUV that offers a perfect blend of performance and practicality. With its turbocharged engine and smooth automatic transmission, it provides a dynamic driving experience. The car is well-maintained and in excellent condition, featuring a stylish Mineral White Metallic exterior and a luxurious leather interior. Equipped with modern safety features and advanced technology, this BMW X1 ensures a comfortable and secure ride.</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/suzuki-spacia-2025-4/</t>
+          <t>https://autostream.lk/listings/bmw-x1-m-sport-2020/</t>
         </is>
       </c>
     </row>
@@ -1774,29 +1628,29 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Toyota Roomy 2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>MPV</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1811,7 +1665,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Dark Blue</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1846,42 +1700,42 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A/C, Dual A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets</t>
+          <t>A/C, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>USB outlets, Touch Display, Multi Function Steering, Speakers</t>
+          <t>USB outlets, AM/FM Radio, Speakers</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Child Locks</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests</t>
+          <t>Fabric Interior, Driver Armrest, Headrests</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps</t>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Retractable Mirrors, Fog Lights</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Push Button Start, Parking Assistance, Rear Spoiler, 4-Way Camera, Alloy wheels</t>
+          <t>Push Button Start, Smart Key, Parking Assistance, Alloy wheels</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Seller NotesHonda CRV VTi L72024 ManufacturedBrand New Panasonic Sunroof2WD, Front Driver’s side electric with memory seats,Wireless mobile phone charging, 7 seater, power tail gate, Apple Car Play and Android Auto, Cruise Control with lane Keep assist and radar Brake, Dual AC and many more option.</t>
+          <t>Seller NotesN/A</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/honda-crv-2024-17/</t>
+          <t>https://autostream.lk/listings/toyota-roomy-2023-18/</t>
         </is>
       </c>
     </row>
@@ -1891,33 +1745,29 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BMW 318i M Sport 2017</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rs. 20,000,000</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>3600</t>
-        </is>
-      </c>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1927,12 +1777,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>M Sport</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1962,43 +1812,285 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A/C</t>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>USB outlets</t>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Memory Seats</t>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Tinted Glass</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr"/>
+          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Seller NotesJeep Rubicon Gladiator Double CabUnregisteredYear of manufacture 2022Mileage 10,000 Kms only DoneOnly Petrol 3600ccAutomatic Transmission4 wheel DriveElectric winchFox Racing suspensionAluminum alloy wheelsBlack Leather Trimmed Bucket Seats4:1 Rock-Trac Full Time 4WD SystemAUX SwitchesPremium Audio with Subwoofer7” uConnectApple CarPlay &amp; Android AutoAir BagsRoll Over BarRear Park AssistRear CameraPush StartKeyless EntryTru-Lok Front &amp; Gear AxlesFront Disconnecting Stabilizer BarLED Headlights17" Alloy wheelsMany more options availableFully LoadedMany more options available on the JeepCall for more information</t>
+          <t>Seller NotesThe BMW 318i 2017 is a perfect blend of luxury and performance. With its turbocharged engine and smooth automatic transmission, it offers a thrilling driving experience. The car is well-maintained and in excellent condition, featuring a stylish Alpine White exterior and a luxurious leather interior. Equipped with modern safety features and advanced technology, this BMW 318i ensures a comfortable and secure ride.</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>https://autostream.lk/listings/jeep-wrangler-2022/</t>
+          <t>https://autostream.lk/listings/bmw-318i-m-sport-2017-3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Toyota Voxy 2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>MPV</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Knee, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/toyota-voxy-2025-4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Honda CRV 2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Negotiable</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Kohuwala</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A/C, Cruise Control, Reverse Camera, Power Door Locks, 12V Power outlets, Heater</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>USB outlets, AM/FM Radio, Touch Display, Multi Function Steering, Speakers, Apple Car Play, Andriod Auto, Navigation</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>ABS, Airbag: Driver, Security System, Airbag: Front Passenger, Airbag: Curtain+Side, Child Locks</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Leather Interior, Driver Armrest, Rear Armrest, Headrests, Seat Back Pockets</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Power Windows, Tinted Glass, Rear Wiper, Headlights: LED, Auto Headlamps, Daytime Running Lights, Retractable Mirrors, Fog Lights</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Sunroof, Push Button Start, Smart Key, Parking Assistance, Rear Spoiler, Paddle Shift, Alloy wheels</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Seller NotesN/A</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>https://autostream.lk/listings/honda-crv-2023/</t>
         </is>
       </c>
     </row>
